--- a/INTLINE/data/134/DEUSTATIS/Import price index - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Import price index - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="85">
   <si>
     <t>Index of import prices: Germany, months, product
 classification (GP2009 2-/3-/4-digit codes/special items)</t>
@@ -267,7 +267,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:09:39</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:48:16</t>
   </si>
 </sst>
 </file>
@@ -17917,11 +17917,11 @@
       <c r="AAV7" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="AAW7" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="AAX7" t="s" s="10">
-        <v>80</v>
+      <c r="AAW7" t="n" s="10">
+        <v>130.1</v>
+      </c>
+      <c r="AAX7" t="n" s="10">
+        <v>133.1</v>
       </c>
       <c r="AAY7" t="s" s="10">
         <v>80</v>
@@ -20121,11 +20121,11 @@
       <c r="AAV8" t="n" s="10">
         <v>192.1</v>
       </c>
-      <c r="AAW8" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="AAX8" t="s" s="10">
-        <v>80</v>
+      <c r="AAW8" t="n" s="10">
+        <v>224.3</v>
+      </c>
+      <c r="AAX8" t="n" s="10">
+        <v>216.4</v>
       </c>
       <c r="AAY8" t="s" s="10">
         <v>80</v>
@@ -20233,7 +20233,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:09:45&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:48:22&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Import price index - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Import price index - GP9 codes.xlsx
@@ -267,7 +267,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:48:16</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:59:24</t>
   </si>
 </sst>
 </file>
@@ -20233,7 +20233,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:48:22&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:59:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>